--- a/Tatulya/create cards/templates/Data_to_create_11.07.2024.xlsx
+++ b/Tatulya/create cards/templates/Data_to_create_11.07.2024.xlsx
@@ -26,7 +26,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,31 +49,6 @@
           </rPr>
           <t xml:space="preserve">Цена, которую покупатель увидит на сайте Ozon.
 Если на товар есть скидка, укажите цену после ее применения. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Ознакомьтесь с Требованиями к названию, чтобы указать правильное название товара и пройти модерацию. Вы можете не заполнять это поле — тогда название составится автоматически из обязательных характеристик: тип + бренд + модель + важные характеристики для категории. https://seller-edu.ozon.ru/docs/nazvanie.html</t>
         </r>
       </text>
     </comment>
@@ -98,8 +73,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Цена, которую покупатель увидит на сайте Ozon.
-Если на товар есть скидка, укажите цену после ее применения. </t>
+          <t xml:space="preserve">Ознакомьтесь с Требованиями к названию, чтобы указать правильное название товара и пройти модерацию. Вы можете не заполнять это поле — тогда название составится автоматически из обязательных характеристик: тип + бренд + модель + важные характеристики для категории. https://seller-edu.ozon.ru/docs/nazvanie.html</t>
         </r>
       </text>
     </comment>
@@ -124,7 +98,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Цена, от которой рассчитывается процент скидки. Отображается зачёркнутой рядом с актуальной ценой и помогает создать ощущение выгодной покупки. </t>
+          <t xml:space="preserve">Цена, которую покупатель увидит на сайте Ozon.
+Если на товар есть скидка, укажите цену после ее применения. </t>
         </r>
       </text>
     </comment>
@@ -149,7 +124,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
+          <t xml:space="preserve">Цена, от которой рассчитывается процент скидки. Отображается зачёркнутой рядом с актуальной ценой и помогает создать ощущение выгодной покупки. </t>
         </r>
       </text>
     </comment>
@@ -174,7 +149,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите «Да», чтобы покупатели видели ваш товар чаще. </t>
+          <t xml:space="preserve">Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
         </r>
       </text>
     </comment>
@@ -199,7 +174,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Заполните поле, если такой товар уже продается на Ozon. Тогда блоки справа можно не заполнять </t>
+          <t xml:space="preserve">Выберите «Да», чтобы покупатели видели ваш товар чаще. </t>
         </r>
       </text>
     </comment>
@@ -224,7 +199,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Введите штрихкод товара от производителя. В случае если у товара несколько штрихкодов укажите их через точку с запятой. Например: H123456;CH789012;1234567AB. https://docs.ozon.ru/partners/zagruzka-tovarov/rabota-so-shtrihkodami</t>
+          <t xml:space="preserve">Заполните поле, если такой товар уже продается на Ozon. Тогда блоки справа можно не заполнять </t>
         </r>
       </text>
     </comment>
@@ -249,7 +224,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите вес единицы товара вместе с упаковкой в граммах. Введите только число. </t>
+          <t xml:space="preserve">Введите штрихкод товара от производителя. В случае если у товара несколько штрихкодов укажите их через точку с запятой. Например: H123456;CH789012;1234567AB. https://docs.ozon.ru/partners/zagruzka-tovarov/rabota-so-shtrihkodami</t>
         </r>
       </text>
     </comment>
@@ -274,6 +249,31 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">Укажите вес единицы товара вместе с упаковкой в граммах. Введите только число. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
 Изделие неправильной формы измерьте от одного края до другого.
 Комплект из нескольких позиций сложите вместе стопкой.
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -508,31 +508,6 @@
           </rPr>
           <t xml:space="preserve">Название файла с изображением товара.
  Запрещенные символы: "/" и "_". </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Укажите наименование бренда, под которым произведен товар. Если товар не имеет бренда, используйте значение "Нет бренда". </t>
         </r>
       </text>
     </comment>
@@ -557,7 +532,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите название модели товара. Не указывайте в этом поле тип и бренд. </t>
+          <t xml:space="preserve">Укажите наименование бренда, под которым произведен товар. Если товар не имеет бренда, используйте значение "Нет бренда". </t>
         </r>
       </text>
     </comment>
@@ -582,7 +557,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Сколько единиц товара будет продано клиенту за указанную цену. Например, 6 бутылок воды в одной упаковке или 12 паучей корма в одной упаковке. Если продаете товар поштучно, укажите в этом поле 1.  </t>
+          <t xml:space="preserve">Укажите название модели товара. Не указывайте в этом поле тип и бренд. </t>
         </r>
       </text>
     </comment>
@@ -607,6 +582,31 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">Сколько единиц товара будет продано клиенту за указанную цену. Например, 6 бутылок воды в одной упаковке или 12 паучей корма в одной упаковке. Если продаете товар поштучно, укажите в этом поле 1.  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">Укажите базовый или доминирующий цвет вашего товара, выбрав значение из списка. Если точного соответствия вы не находите, используйте ближайшие похожие цвета. 
 Сложные цвета нужно описывать перечислением простых цветов. Например, если вы описываете шмеля, и у него, очевидно, преобладают чёрный, жёлтый и белый цвета, то укажите их все простым перечислением. 
 Помните, что атрибут Цвет товара - это базовый цвет, все любые другие цвета вы можете прописать в атрибуте Название цвета.
@@ -614,31 +614,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Укажите словесное описание цвета вашего товара. Если товар имеет красивое название цвета от поставщика, не ограничивайте себя, укажите его. Для косметики смело пишите номера тонов и оттенков, и даже "Нежная голубая лазурь" будет уместна. </t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AU1" authorId="0">
       <text>
         <r>
@@ -660,7 +635,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите наиболее подходящий тип товара. По типам товары распределяются по категориям на сайте Ozon. Если тип указан неправильно, товар попадет в неверную категорию. Чтобы правильно указать тип, найдите на сайте Ozon товары, похожие на ваш, и посмотрите, какой тип у них указан. </t>
+          <t xml:space="preserve">Укажите словесное описание цвета вашего товара. Если товар имеет красивое название цвета от поставщика, не ограничивайте себя, укажите его. Для косметики смело пишите номера тонов и оттенков, и даже "Нежная голубая лазурь" будет уместна. </t>
         </r>
       </text>
     </comment>
@@ -685,7 +660,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Описание товара, маркетинговый текст. Необходимо заполнять на русском языке. </t>
+          <t xml:space="preserve">Выберите наиболее подходящий тип товара. По типам товары распределяются по категориям на сайте Ozon. Если тип указан неправильно, товар попадет в неверную категорию. Чтобы правильно указать тип, найдите на сайте Ozon товары, похожие на ваш, и посмотрите, какой тип у них указан. </t>
         </r>
       </text>
     </comment>
@@ -710,7 +685,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите гарантийный срок. Гарантийный срок – это период, в течение которого изготовитель гарантирует качество товара и обязуется принять данный товар у потребителя для проведения проверки качества (экспертизы) и выполнения предусмотренных законом требований. </t>
+          <t xml:space="preserve">Описание товара, маркетинговый текст. Необходимо заполнять на русском языке. </t>
         </r>
       </text>
     </comment>
@@ -735,7 +710,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+          <t xml:space="preserve">Укажите гарантийный срок. Гарантийный срок – это период, в течение которого изготовитель гарантирует качество товара и обязуется принять данный товар у потребителя для проведения проверки качества (экспертизы) и выполнения предусмотренных законом требований. </t>
         </r>
       </text>
     </comment>
@@ -760,7 +735,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
@@ -810,7 +785,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
         </r>
       </text>
     </comment>
@@ -835,7 +810,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
@@ -860,7 +835,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">ВАЖНО!!! Признак для товаров, которые содержат эротику, сцены секса, изображения с нецензурными выражениями, даже если они написаны частично или со спец. символами, а также для товаров категории 18+ (только для взрослых). </t>
+          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
         </r>
       </text>
     </comment>
@@ -885,7 +860,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+          <t xml:space="preserve">ВАЖНО!!! Признак для товаров, которые содержат эротику, сцены секса, изображения с нецензурными выражениями, даже если они написаны частично или со спец. символами, а также для товаров категории 18+ (только для взрослых). </t>
         </r>
       </text>
     </comment>
@@ -910,7 +885,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Если цвет вашего товара настолько привлекателен, что заслуживает показа на сайте в виде маленькой миниатюры - загружайте сюда его образец. Это может быть крупный фрагмент товара, мазок краски или помады. Главное помните, что это всего лишь миниатюра, не заливайте изображения, содержащие текст или какие-либо пояснительные рисунки, наш сайт сделает его очень маленьким. Проще говоря, если вместо стандартных кружочков простых цветов выбора варианта товара вы желаете показать клиенту реальный цвет, смело заливайте сюда изображение </t>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
@@ -935,7 +910,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно или несколько значений из списка, но не больше 3. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+          <t xml:space="preserve">Если цвет вашего товара настолько привлекателен, что заслуживает показа на сайте в виде маленькой миниатюры - загружайте сюда его образец. Это может быть крупный фрагмент товара, мазок краски или помады. Главное помните, что это всего лишь миниатюра, не заливайте изображения, содержащие текст или какие-либо пояснительные рисунки, наш сайт сделает его очень маленьким. Проще говоря, если вместо стандартных кружочков простых цветов выбора варианта товара вы желаете показать клиенту реальный цвет, смело заливайте сюда изображение </t>
         </r>
       </text>
     </comment>
@@ -960,7 +935,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Добавьте расширенное описание товара с фото и видео по шаблону в формате JSON. Подробнее: https://seller-edu.ozon.ru/docs/work-with-goods/dobavlenie-rich-kontenta-json.html </t>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка, но не больше 3. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
@@ -985,9 +960,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Сколько заводских упаковок вы собрали вместе и теперь продаете, как одно SKU.
-Если ваш товар - это 24 банки детского пюре, запаянных в 1 упаковку на заводе, и в таком же виде этот товар может продаваться в других магазинах - значение атрибута будет 1.
-Если ваш товар - это 3 лампочки, запаянные или связанные в одну упаковку вами, и вы решили их объединить самостоятельно (а завод выпускает лампочки в упаковках, например, 1 шт. и 10 шт.) - значение атрибута будет 3. </t>
+          <t xml:space="preserve">Добавьте расширенное описание товара с фото и видео по шаблону в формате JSON. Подробнее: https://seller-edu.ozon.ru/docs/work-with-goods/dobavlenie-rich-kontenta-json.html </t>
         </r>
       </text>
     </comment>
@@ -1012,7 +985,9 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите минимальный рекомендованный возраст ребенка. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
+          <t xml:space="preserve">Сколько заводских упаковок вы собрали вместе и теперь продаете, как одно SKU.
+Если ваш товар - это 24 банки детского пюре, запаянных в 1 упаковку на заводе, и в таком же виде этот товар может продаваться в других магазинах - значение атрибута будет 1.
+Если ваш товар - это 3 лампочки, запаянные или связанные в одну упаковку вами, и вы решили их объединить самостоятельно (а завод выпускает лампочки в упаковках, например, 1 шт. и 10 шт.) - значение атрибута будет 3. </t>
         </r>
       </text>
     </comment>
@@ -1037,7 +1012,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите максимальный рекомендованный возраст ребенка. Если такового нет - выберите значение \До 18 лет\. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
+          <t xml:space="preserve">Укажите минимальный рекомендованный возраст ребенка. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
         </r>
       </text>
     </comment>
@@ -1062,7 +1037,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите пол ребенка, для которого рекомендован товар. Если нет явной гендерной принадлежности - выберите значение "Унисекс" </t>
+          <t xml:space="preserve">Укажите максимальный рекомендованный возраст ребенка. Если такового нет - выберите значение \До 18 лет\. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
         </r>
       </text>
     </comment>
@@ -1087,7 +1062,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно значение из списка или оставьте пустым, если ваш товар не требует маркировки </t>
+          <t xml:space="preserve">Укажите пол ребенка, для которого рекомендован товар. Если нет явной гендерной принадлежности - выберите значение "Унисекс" </t>
         </r>
       </text>
     </comment>
@@ -1112,7 +1087,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Через точку с запятой укажите ключевые слова и словосочетания, которые описывают ваш товар. Используйте только соответствующие фактическому товару значения. </t>
+          <t xml:space="preserve">Выберите одно значение из списка или оставьте пустым, если ваш товар не требует маркировки </t>
         </r>
       </text>
     </comment>
@@ -1137,7 +1112,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Введите одинаковое значение в этом атрибуте для объединения товаров в серию. Обратите внимание, что товары в серии собираются внутри одного бренда, если у товаров будет указана одна серия и разные бренды - вы получите две разные серии. Подробнее об объединении в серии можно прочитать тут https://seller-edu.ozon.ru/work-with-goods/zagruzka-tovarov/created-goods/obedinenie-tovarov-v-seriu </t>
+          <t xml:space="preserve">Через точку с запятой укажите ключевые слова и словосочетания, которые описывают ваш товар. Используйте только соответствующие фактическому товару значения. </t>
         </r>
       </text>
     </comment>
@@ -1162,9 +1137,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Данное поле предназначено для заполнения только продавцам из Турции.
-Перейдите на сайт https://uygulama.gtb.gov.tr/Tara/, укажите ваш товар - в ответе будет указан код, который нужно вставить в данное поле. Код состоит из набора цифр длиной от 6 до 12 знаков.
-Подробнее про HS-коды и для чего они нужны можно узнать здесь https://docs.ozon.ru/global/fulfillment/rfbs/logistic-settings/selling-from-turkey/?country=TR </t>
+          <t xml:space="preserve">Введите одинаковое значение в этом атрибуте для объединения товаров в серию. Обратите внимание, что товары в серии собираются внутри одного бренда, если у товаров будет указана одна серия и разные бренды - вы получите две разные серии. Подробнее об объединении в серии можно прочитать тут https://seller-edu.ozon.ru/work-with-goods/zagruzka-tovarov/created-goods/obedinenie-tovarov-v-seriu </t>
         </r>
       </text>
     </comment>
@@ -1189,7 +1162,9 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Критичная ошибка в характеристиках товара. Товар с ошибками не будет продаваться. </t>
+          <t xml:space="preserve">Данное поле предназначено для заполнения только продавцам из Турции.
+Перейдите на сайт https://uygulama.gtb.gov.tr/Tara/, укажите ваш товар - в ответе будет указан код, который нужно вставить в данное поле. Код состоит из набора цифр длиной от 6 до 12 знаков.
+Подробнее про HS-коды и для чего они нужны можно узнать здесь https://docs.ozon.ru/global/fulfillment/rfbs/logistic-settings/selling-from-turkey/?country=TR </t>
         </r>
       </text>
     </comment>
@@ -1214,7 +1189,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Устаревшее или незаполненное значение в характеристиках товара. Возникает при изменениях в атрибутной модели и не влияет на продажу товара. </t>
+          <t xml:space="preserve">Критичная ошибка в характеристиках товара. Товар с ошибками не будет продаваться. </t>
         </r>
       </text>
     </comment>
@@ -1239,11 +1214,36 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите название для видео </t>
+          <t xml:space="preserve">Устаревшее или незаполненное значение в характеристиках товара. Возникает при изменениях в атрибутной модели и не влияет на продажу товара. </t>
         </r>
       </text>
     </comment>
     <comment ref="BS1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите название для видео </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1273,9 +1273,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="105">
-  <si>
-    <t xml:space="preserve">Артикул</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="105">
+  <si>
+    <t xml:space="preserve">Артикул продавца</t>
   </si>
   <si>
     <t xml:space="preserve">штрихкод</t>
@@ -1311,16 +1311,13 @@
     <t xml:space="preserve">Пол</t>
   </si>
   <si>
-    <t xml:space="preserve">Артикул продавца</t>
-  </si>
-  <si>
     <t xml:space="preserve">Артикул WB</t>
   </si>
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>
   <si>
-    <t xml:space="preserve">Баркод товара</t>
+    <t xml:space="preserve">Баркоды</t>
   </si>
   <si>
     <t xml:space="preserve">Цена</t>
@@ -1348,6 +1345,9 @@
   </si>
   <si>
     <t xml:space="preserve">Медиафайлы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Видео</t>
   </si>
   <si>
     <t xml:space="preserve">OZON</t>
@@ -1599,7 +1599,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1623,6 +1623,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -1761,7 +1769,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1770,7 +1778,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1778,15 +1786,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1798,7 +1814,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1822,15 +1838,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1846,7 +1862,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFDFDFD"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1863,7 +1879,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFDFDFD"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1911,13 +1927,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BS12"/>
+  <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN3" activeCellId="0" sqref="BN3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
@@ -1944,246 +1960,249 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="65.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="33.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="45.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="87.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="43" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="50" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="58" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="33.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="45.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="87.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="44" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="51" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="59" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BM1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BN1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BO1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BP1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BR1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BS1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BT1" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -2203,7 +2222,7 @@
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -2226,7 +2245,7 @@
       <c r="R2" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="8" t="str">
+      <c r="S2" s="10" t="str">
         <f aca="false">A2&amp;Описание!B3</f>
         <v>Термонаклейка Девушка с колибри роза кольцо - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -2246,101 +2265,105 @@
       <c r="X2" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA2" s="0" t="str">
+      <c r="Y2" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z2" s="11" t="str">
+        <f aca="false">CONCATENATE(H2,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB2" s="0" t="str">
         <f aca="false">A2</f>
         <v>Термонаклейка Девушка с колибри роза кольцо</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <f aca="false">Q2</f>
         <v>349</v>
       </c>
-      <c r="AC2" s="0" t="n">
-        <f aca="false">ROUND(AB2*1.5,0)</f>
+      <c r="AD2" s="0" t="n">
+        <f aca="false">ROUND(AC2*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <f aca="false">W2</f>
         <v>12</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AJ2" s="13" t="n">
         <f aca="false">V2*10</f>
         <v>210</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AK2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AL2" s="13" t="n">
         <f aca="false">U2*10</f>
         <v>300</v>
       </c>
-      <c r="AL2" s="13" t="str">
+      <c r="AM2" s="15" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_1.jpg</v>
       </c>
-      <c r="AM2" s="14" t="str">
+      <c r="AN2" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, C2, "_6.jpg;"),CONCATENATE(H2, C2, "_7.jpg;"),CONCATENATE(H2, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP2" s="13" t="str">
+      <c r="AQ2" s="15" t="str">
         <f aca="false">J2</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AR2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="0" t="str">
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="0" t="str">
         <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
         <v>Девушка с колибри роза кольцо</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AV2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV2" s="0" t="str">
+      <c r="AW2" s="0" t="str">
         <f aca="false">S2</f>
         <v>Термонаклейка Девушка с колибри роза кольцо - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX2" s="11" t="str">
+      <c r="AY2" s="13" t="str">
         <f aca="false">X2</f>
         <v>Россия</v>
       </c>
-      <c r="BA2" s="11" t="str">
+      <c r="BB2" s="13" t="str">
         <f aca="false">R2</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC2" s="7" t="s">
+      <c r="BD2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="14" t="str">
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="16" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/212_vert_color.jpg</v>
       </c>
-      <c r="BM2" s="0" t="str">
+      <c r="BN2" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A2,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка с колибри роза кольцо</v>
       </c>
-      <c r="BR2" s="16" t="s">
+      <c r="BS2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS2" s="17" t="str">
+      <c r="BT2" s="19" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -2360,7 +2383,7 @@
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I3" s="0" t="s">
@@ -2383,7 +2406,7 @@
       <c r="R3" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S3" s="8" t="str">
+      <c r="S3" s="10" t="str">
         <f aca="false">A3&amp;Описание!B7</f>
         <v>Термонаклейка Чайка силует море внутри - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -2403,99 +2426,103 @@
       <c r="X3" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H3,C3,"_1.jpg;"),CONCATENATE(H3,C3,"_2.jpg;"),CONCATENATE(H3,C3,"_3.jpg;"),CONCATENATE(H3,C3,"_4.jpg;"),CONCATENATE(H3,C3,"_5.jpg;"),CONCATENATE(H3,C3,"_6.jpg;"),CONCATENATE(H3,C3,"_7.jpg;"),CONCATENATE(H3,"instruction_A4.jpg;"),CONCATENATE(H3,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA3" s="0" t="str">
+      <c r="Y3" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H3,C3,"_1.jpg;"),CONCATENATE(H3,C3,"_2.jpg;"),CONCATENATE(H3,C3,"_3.jpg;"),CONCATENATE(H3,C3,"_4.jpg;"),CONCATENATE(H3,C3,"_5.jpg;"),CONCATENATE(H3,C3,"_6.jpg;"),CONCATENATE(H3,C3,"_7.jpg;"),CONCATENATE(H3,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z3" s="11" t="str">
+        <f aca="false">CONCATENATE(H3,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB3" s="0" t="str">
         <f aca="false">A3</f>
         <v>Термонаклейка Чайка силует море внутри</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <f aca="false">Q3</f>
         <v>349</v>
       </c>
-      <c r="AC3" s="0" t="n">
-        <f aca="false">ROUND(AB3*1.5,0)</f>
+      <c r="AD3" s="0" t="n">
+        <f aca="false">ROUND(AC3*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <f aca="false">W3</f>
         <v>12</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AJ3" s="13" t="n">
         <f aca="false">V3*10</f>
         <v>210</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AK3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AL3" s="13" t="n">
         <f aca="false">U3*10</f>
         <v>300</v>
       </c>
-      <c r="AL3" s="13" t="str">
+      <c r="AM3" s="15" t="str">
         <f aca="false">CONCATENATE(H3,C3,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_1.jpg</v>
       </c>
-      <c r="AM3" s="14" t="str">
+      <c r="AN3" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H3, C3, "_2.jpg;"),CONCATENATE(H3, C3, "_3.jpg;"),CONCATENATE(H3, C3, "_4.jpg;"),CONCATENATE(H3, C3, "_5.jpg;"),CONCATENATE(H3, C3, "_6.jpg;"),CONCATENATE(H3, C3, "_7.jpg;"),CONCATENATE(H3, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP3" s="13" t="str">
+      <c r="AQ3" s="15" t="str">
         <f aca="false">J3</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ3" s="15" t="s">
+      <c r="AR3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AT3" s="0" t="str">
+      <c r="AU3" s="0" t="str">
         <f aca="false">SUBSTITUTE(A3,"Термонаклейка ","")</f>
         <v>Чайка силует море внутри</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AV3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV3" s="0" t="str">
+      <c r="AW3" s="0" t="str">
         <f aca="false">S3</f>
         <v>Термонаклейка Чайка силует море внутри - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX3" s="11" t="str">
+      <c r="AY3" s="13" t="str">
         <f aca="false">X3</f>
         <v>Россия</v>
       </c>
-      <c r="BA3" s="11" t="str">
+      <c r="BB3" s="13" t="str">
         <f aca="false">R3</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BD3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BE3" s="14" t="str">
+      <c r="BF3" s="16" t="str">
         <f aca="false">CONCATENATE(H3,C3,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/213_vert_color.jpg</v>
       </c>
-      <c r="BM3" s="0" t="str">
+      <c r="BN3" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A3,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Чайка силует море внутри</v>
       </c>
-      <c r="BR3" s="16" t="s">
+      <c r="BS3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS3" s="17" t="str">
+      <c r="BT3" s="19" t="str">
         <f aca="false">CONCATENATE(H3,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -2515,7 +2542,7 @@
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="0" t="s">
@@ -2538,7 +2565,7 @@
       <c r="R4" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="8" t="str">
+      <c r="S4" s="10" t="str">
         <f aca="false">A4&amp;Описание!B10</f>
         <v>Термонаклейка Матрешка с хлебом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -2558,99 +2585,103 @@
       <c r="X4" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,C4,"_6.jpg;"),CONCATENATE(H4,C4,"_7.jpg;"),CONCATENATE(H4,"instruction_A4.jpg;"),CONCATENATE(H4,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA4" s="0" t="str">
+      <c r="Y4" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,C4,"_6.jpg;"),CONCATENATE(H4,C4,"_7.jpg;"),CONCATENATE(H4,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z4" s="11" t="str">
+        <f aca="false">CONCATENATE(H4,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB4" s="0" t="str">
         <f aca="false">A4</f>
         <v>Термонаклейка Матрешка с хлебом</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <f aca="false">Q4</f>
         <v>349</v>
       </c>
-      <c r="AC4" s="0" t="n">
-        <f aca="false">ROUND(AB4*1.5,0)</f>
+      <c r="AD4" s="0" t="n">
+        <f aca="false">ROUND(AC4*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AE4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AF4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <f aca="false">W4</f>
         <v>12</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AJ4" s="13" t="n">
         <f aca="false">V4*10</f>
         <v>210</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AK4" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AL4" s="13" t="n">
         <f aca="false">U4*10</f>
         <v>300</v>
       </c>
-      <c r="AL4" s="13" t="str">
+      <c r="AM4" s="15" t="str">
         <f aca="false">CONCATENATE(H4,C4,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_1.jpg</v>
       </c>
-      <c r="AM4" s="14" t="str">
+      <c r="AN4" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H4, C4, "_2.jpg;"),CONCATENATE(H4, C4, "_3.jpg;"),CONCATENATE(H4, C4, "_4.jpg;"),CONCATENATE(H4, C4, "_5.jpg;"),CONCATENATE(H4, C4, "_6.jpg;"),CONCATENATE(H4, C4, "_7.jpg;"),CONCATENATE(H4, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP4" s="13" t="str">
+      <c r="AQ4" s="15" t="str">
         <f aca="false">J4</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ4" s="15" t="s">
+      <c r="AR4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AT4" s="0" t="str">
+      <c r="AU4" s="0" t="str">
         <f aca="false">SUBSTITUTE(A4,"Термонаклейка ","")</f>
         <v>Матрешка с хлебом</v>
       </c>
-      <c r="AU4" s="10" t="s">
+      <c r="AV4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV4" s="0" t="str">
+      <c r="AW4" s="0" t="str">
         <f aca="false">S4</f>
         <v>Термонаклейка Матрешка с хлебом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX4" s="11" t="str">
+      <c r="AY4" s="13" t="str">
         <f aca="false">X4</f>
         <v>Россия</v>
       </c>
-      <c r="BA4" s="11" t="str">
+      <c r="BB4" s="13" t="str">
         <f aca="false">R4</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC4" s="7" t="s">
+      <c r="BD4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BE4" s="14" t="str">
+      <c r="BF4" s="16" t="str">
         <f aca="false">CONCATENATE(H4,C4,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/214_vert_color.jpg</v>
       </c>
-      <c r="BM4" s="0" t="str">
+      <c r="BN4" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A4,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Матрешка с хлебом</v>
       </c>
-      <c r="BR4" s="16" t="s">
+      <c r="BS4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS4" s="17" t="str">
+      <c r="BT4" s="19" t="str">
         <f aca="false">CONCATENATE(H4,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -2670,7 +2701,7 @@
       <c r="G5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="0" t="s">
@@ -2690,7 +2721,7 @@
       <c r="R5" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S5" s="8" t="str">
+      <c r="S5" s="10" t="str">
         <f aca="false">A5&amp;Описание!B11</f>
         <v>Термонаклейка Попугаи 2шт зеленый и желтый - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -2710,99 +2741,103 @@
       <c r="X5" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y5" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,C5,"_6.jpg;"),CONCATENATE(H5,C5,"_7.jpg;"),CONCATENATE(H5,"instruction_A4.jpg;"),CONCATENATE(H5,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA5" s="0" t="str">
+      <c r="Y5" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,C5,"_6.jpg;"),CONCATENATE(H5,C5,"_7.jpg;"),CONCATENATE(H5,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z5" s="11" t="str">
+        <f aca="false">CONCATENATE(H5,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB5" s="0" t="str">
         <f aca="false">A5</f>
         <v>Термонаклейка Попугаи 2шт зеленый и желтый</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <f aca="false">Q5</f>
         <v>349</v>
       </c>
-      <c r="AC5" s="0" t="n">
-        <f aca="false">ROUND(AB5*1.5,0)</f>
+      <c r="AD5" s="0" t="n">
+        <f aca="false">ROUND(AC5*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AE5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AF5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <f aca="false">W5</f>
         <v>12</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AJ5" s="13" t="n">
         <f aca="false">V5*10</f>
         <v>210</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AK5" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AL5" s="13" t="n">
         <f aca="false">U5*10</f>
         <v>300</v>
       </c>
-      <c r="AL5" s="13" t="str">
+      <c r="AM5" s="15" t="str">
         <f aca="false">CONCATENATE(H5,C5,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_1.jpg</v>
       </c>
-      <c r="AM5" s="14" t="str">
+      <c r="AN5" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H5, C5, "_2.jpg;"),CONCATENATE(H5, C5, "_3.jpg;"),CONCATENATE(H5, C5, "_4.jpg;"),CONCATENATE(H5, C5, "_5.jpg;"),CONCATENATE(H5, C5, "_6.jpg;"),CONCATENATE(H5, C5, "_7.jpg;"),CONCATENATE(H5, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP5" s="13" t="str">
+      <c r="AQ5" s="15" t="str">
         <f aca="false">J5</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ5" s="15" t="s">
+      <c r="AR5" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AT5" s="0" t="str">
+      <c r="AU5" s="0" t="str">
         <f aca="false">SUBSTITUTE(A5,"Термонаклейка ","")</f>
         <v>Попугаи 2шт зеленый и желтый</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AV5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV5" s="0" t="str">
+      <c r="AW5" s="0" t="str">
         <f aca="false">S5</f>
         <v>Термонаклейка Попугаи 2шт зеленый и желтый - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX5" s="11" t="str">
+      <c r="AY5" s="13" t="str">
         <f aca="false">X5</f>
         <v>Россия</v>
       </c>
-      <c r="BA5" s="11" t="str">
+      <c r="BB5" s="13" t="str">
         <f aca="false">R5</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC5" s="7" t="s">
+      <c r="BD5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BE5" s="14" t="str">
+      <c r="BF5" s="16" t="str">
         <f aca="false">CONCATENATE(H5,C5,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/215_vert_color.jpg</v>
       </c>
-      <c r="BM5" s="0" t="str">
+      <c r="BN5" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A5,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Попугаи 2шт зеленый и желтый</v>
       </c>
-      <c r="BR5" s="16" t="s">
+      <c r="BS5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS5" s="17" t="str">
+      <c r="BT5" s="19" t="str">
         <f aca="false">CONCATENATE(H5,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -2822,7 +2857,7 @@
       <c r="G6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I6" s="0" t="s">
@@ -2845,7 +2880,7 @@
       <c r="R6" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S6" s="8" t="str">
+      <c r="S6" s="10" t="str">
         <f aca="false">A6&amp;Описание!B12</f>
         <v>Термонаклейка Матрешка Moscow - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -2865,99 +2900,103 @@
       <c r="X6" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y6" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H6,C6,"_1.jpg;"),CONCATENATE(H6,C6,"_2.jpg;"),CONCATENATE(H6,C6,"_3.jpg;"),CONCATENATE(H6,C6,"_4.jpg;"),CONCATENATE(H6,C6,"_5.jpg;"),CONCATENATE(H6,C6,"_6.jpg;"),CONCATENATE(H6,C6,"_7.jpg;"),CONCATENATE(H6,"instruction_A4.jpg;"),CONCATENATE(H6,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA6" s="0" t="str">
+      <c r="Y6" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H6,C6,"_1.jpg;"),CONCATENATE(H6,C6,"_2.jpg;"),CONCATENATE(H6,C6,"_3.jpg;"),CONCATENATE(H6,C6,"_4.jpg;"),CONCATENATE(H6,C6,"_5.jpg;"),CONCATENATE(H6,C6,"_6.jpg;"),CONCATENATE(H6,C6,"_7.jpg;"),CONCATENATE(H6,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z6" s="11" t="str">
+        <f aca="false">CONCATENATE(H6,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB6" s="0" t="str">
         <f aca="false">A6</f>
         <v>Термонаклейка Матрешка Moscow</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <f aca="false">Q6</f>
         <v>349</v>
       </c>
-      <c r="AC6" s="0" t="n">
-        <f aca="false">ROUND(AB6*1.5,0)</f>
+      <c r="AD6" s="0" t="n">
+        <f aca="false">ROUND(AC6*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AE6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AF6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <f aca="false">W6</f>
         <v>12</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AJ6" s="13" t="n">
         <f aca="false">V6*10</f>
         <v>210</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AK6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AL6" s="13" t="n">
         <f aca="false">U6*10</f>
         <v>300</v>
       </c>
-      <c r="AL6" s="13" t="str">
+      <c r="AM6" s="15" t="str">
         <f aca="false">CONCATENATE(H6,C6,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_1.jpg</v>
       </c>
-      <c r="AM6" s="14" t="str">
+      <c r="AN6" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H6, C6, "_2.jpg;"),CONCATENATE(H6, C6, "_3.jpg;"),CONCATENATE(H6, C6, "_4.jpg;"),CONCATENATE(H6, C6, "_5.jpg;"),CONCATENATE(H6, C6, "_6.jpg;"),CONCATENATE(H6, C6, "_7.jpg;"),CONCATENATE(H6, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP6" s="13" t="str">
+      <c r="AQ6" s="15" t="str">
         <f aca="false">J6</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ6" s="15" t="s">
+      <c r="AR6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AT6" s="0" t="str">
+      <c r="AU6" s="0" t="str">
         <f aca="false">SUBSTITUTE(A6,"Термонаклейка ","")</f>
         <v>Матрешка Moscow</v>
       </c>
-      <c r="AU6" s="10" t="s">
+      <c r="AV6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV6" s="0" t="str">
+      <c r="AW6" s="0" t="str">
         <f aca="false">S6</f>
         <v>Термонаклейка Матрешка Moscow - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX6" s="11" t="str">
+      <c r="AY6" s="13" t="str">
         <f aca="false">X6</f>
         <v>Россия</v>
       </c>
-      <c r="BA6" s="11" t="str">
+      <c r="BB6" s="13" t="str">
         <f aca="false">R6</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC6" s="7" t="s">
+      <c r="BD6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BE6" s="14" t="str">
+      <c r="BF6" s="16" t="str">
         <f aca="false">CONCATENATE(H6,C6,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/216_vert_color.jpg</v>
       </c>
-      <c r="BM6" s="0" t="str">
+      <c r="BN6" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A6,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Матрешка Moscow</v>
       </c>
-      <c r="BR6" s="16" t="s">
+      <c r="BS6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS6" s="17" t="str">
+      <c r="BT6" s="19" t="str">
         <f aca="false">CONCATENATE(H6,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -2977,7 +3016,7 @@
       <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I7" s="0" t="s">
@@ -3000,7 +3039,7 @@
       <c r="R7" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S7" s="8" t="str">
+      <c r="S7" s="10" t="str">
         <f aca="false">A7&amp;Описание!B13</f>
         <v>Термонаклейка Девушка с фламинго - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -3020,99 +3059,103 @@
       <c r="X7" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H7,C7,"_1.jpg;"),CONCATENATE(H7,C7,"_2.jpg;"),CONCATENATE(H7,C7,"_3.jpg;"),CONCATENATE(H7,C7,"_4.jpg;"),CONCATENATE(H7,C7,"_5.jpg;"),CONCATENATE(H7,C7,"_6.jpg;"),CONCATENATE(H7,C7,"_7.jpg;"),CONCATENATE(H7,"instruction_A4.jpg;"),CONCATENATE(H7,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA7" s="0" t="str">
+      <c r="Y7" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H7,C7,"_1.jpg;"),CONCATENATE(H7,C7,"_2.jpg;"),CONCATENATE(H7,C7,"_3.jpg;"),CONCATENATE(H7,C7,"_4.jpg;"),CONCATENATE(H7,C7,"_5.jpg;"),CONCATENATE(H7,C7,"_6.jpg;"),CONCATENATE(H7,C7,"_7.jpg;"),CONCATENATE(H7,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f aca="false">CONCATENATE(H7,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB7" s="0" t="str">
         <f aca="false">A7</f>
         <v>Термонаклейка Девушка с фламинго</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <f aca="false">Q7</f>
         <v>349</v>
       </c>
-      <c r="AC7" s="0" t="n">
-        <f aca="false">ROUND(AB7*1.5,0)</f>
+      <c r="AD7" s="0" t="n">
+        <f aca="false">ROUND(AC7*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AE7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE7" s="7" t="s">
+      <c r="AF7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <f aca="false">W7</f>
         <v>12</v>
       </c>
-      <c r="AI7" s="11" t="n">
+      <c r="AJ7" s="13" t="n">
         <f aca="false">V7*10</f>
         <v>210</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AK7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AL7" s="13" t="n">
         <f aca="false">U7*10</f>
         <v>300</v>
       </c>
-      <c r="AL7" s="13" t="str">
+      <c r="AM7" s="15" t="str">
         <f aca="false">CONCATENATE(H7,C7,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_1.jpg</v>
       </c>
-      <c r="AM7" s="14" t="str">
+      <c r="AN7" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H7, C7, "_2.jpg;"),CONCATENATE(H7, C7, "_3.jpg;"),CONCATENATE(H7, C7, "_4.jpg;"),CONCATENATE(H7, C7, "_5.jpg;"),CONCATENATE(H7, C7, "_6.jpg;"),CONCATENATE(H7, C7, "_7.jpg;"),CONCATENATE(H7, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP7" s="13" t="str">
+      <c r="AQ7" s="15" t="str">
         <f aca="false">J7</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ7" s="15" t="s">
+      <c r="AR7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AT7" s="0" t="str">
+      <c r="AU7" s="0" t="str">
         <f aca="false">SUBSTITUTE(A7,"Термонаклейка ","")</f>
         <v>Девушка с фламинго</v>
       </c>
-      <c r="AU7" s="10" t="s">
+      <c r="AV7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV7" s="0" t="str">
+      <c r="AW7" s="0" t="str">
         <f aca="false">S7</f>
         <v>Термонаклейка Девушка с фламинго - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX7" s="11" t="str">
+      <c r="AY7" s="13" t="str">
         <f aca="false">X7</f>
         <v>Россия</v>
       </c>
-      <c r="BA7" s="11" t="str">
+      <c r="BB7" s="13" t="str">
         <f aca="false">R7</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC7" s="7" t="s">
+      <c r="BD7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BE7" s="14" t="str">
+      <c r="BF7" s="16" t="str">
         <f aca="false">CONCATENATE(H7,C7,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/217_vert_color.jpg</v>
       </c>
-      <c r="BM7" s="0" t="str">
+      <c r="BN7" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A7,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка с фламинго</v>
       </c>
-      <c r="BR7" s="16" t="s">
+      <c r="BS7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS7" s="17" t="str">
+      <c r="BT7" s="19" t="str">
         <f aca="false">CONCATENATE(H7,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -3132,7 +3175,7 @@
       <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I8" s="0" t="s">
@@ -3155,7 +3198,7 @@
       <c r="R8" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="8" t="str">
+      <c r="S8" s="10" t="str">
         <f aca="false">A8&amp;Описание!B14</f>
         <v>Термонаклейка Цветы Пионы красные Pionies - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -3175,99 +3218,103 @@
       <c r="X8" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y8" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H8,C8,"_1.jpg;"),CONCATENATE(H8,C8,"_2.jpg;"),CONCATENATE(H8,C8,"_3.jpg;"),CONCATENATE(H8,C8,"_4.jpg;"),CONCATENATE(H8,C8,"_5.jpg;"),CONCATENATE(H8,C8,"_6.jpg;"),CONCATENATE(H8,C8,"_7.jpg;"),CONCATENATE(H8,"instruction_A4.jpg;"),CONCATENATE(H8,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA8" s="0" t="str">
+      <c r="Y8" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H8,C8,"_1.jpg;"),CONCATENATE(H8,C8,"_2.jpg;"),CONCATENATE(H8,C8,"_3.jpg;"),CONCATENATE(H8,C8,"_4.jpg;"),CONCATENATE(H8,C8,"_5.jpg;"),CONCATENATE(H8,C8,"_6.jpg;"),CONCATENATE(H8,C8,"_7.jpg;"),CONCATENATE(H8,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z8" s="11" t="str">
+        <f aca="false">CONCATENATE(H8,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB8" s="0" t="str">
         <f aca="false">A8</f>
         <v>Термонаклейка Цветы Пионы красные Pionies</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <f aca="false">Q8</f>
         <v>349</v>
       </c>
-      <c r="AC8" s="0" t="n">
-        <f aca="false">ROUND(AB8*1.5,0)</f>
+      <c r="AD8" s="0" t="n">
+        <f aca="false">ROUND(AC8*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD8" s="10" t="s">
+      <c r="AE8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AF8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AI8" s="0" t="n">
         <f aca="false">W8</f>
         <v>12</v>
       </c>
-      <c r="AI8" s="11" t="n">
+      <c r="AJ8" s="13" t="n">
         <f aca="false">V8*10</f>
         <v>210</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AK8" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK8" s="11" t="n">
+      <c r="AL8" s="13" t="n">
         <f aca="false">U8*10</f>
         <v>300</v>
       </c>
-      <c r="AL8" s="13" t="str">
+      <c r="AM8" s="15" t="str">
         <f aca="false">CONCATENATE(H8,C8,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_1.jpg</v>
       </c>
-      <c r="AM8" s="14" t="str">
+      <c r="AN8" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H8, C8, "_2.jpg;"),CONCATENATE(H8, C8, "_3.jpg;"),CONCATENATE(H8, C8, "_4.jpg;"),CONCATENATE(H8, C8, "_5.jpg;"),CONCATENATE(H8, C8, "_6.jpg;"),CONCATENATE(H8, C8, "_7.jpg;"),CONCATENATE(H8, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP8" s="13" t="str">
+      <c r="AQ8" s="15" t="str">
         <f aca="false">J8</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ8" s="15" t="s">
+      <c r="AR8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AT8" s="0" t="str">
+      <c r="AU8" s="0" t="str">
         <f aca="false">SUBSTITUTE(A8,"Термонаклейка ","")</f>
         <v>Цветы Пионы красные Pionies</v>
       </c>
-      <c r="AU8" s="10" t="s">
+      <c r="AV8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV8" s="0" t="str">
+      <c r="AW8" s="0" t="str">
         <f aca="false">S8</f>
         <v>Термонаклейка Цветы Пионы красные Pionies - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX8" s="11" t="str">
+      <c r="AY8" s="13" t="str">
         <f aca="false">X8</f>
         <v>Россия</v>
       </c>
-      <c r="BA8" s="11" t="str">
+      <c r="BB8" s="13" t="str">
         <f aca="false">R8</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC8" s="7" t="s">
+      <c r="BD8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BE8" s="14" t="str">
+      <c r="BF8" s="16" t="str">
         <f aca="false">CONCATENATE(H8,C8,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/218_vert_color.jpg</v>
       </c>
-      <c r="BM8" s="0" t="str">
+      <c r="BN8" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A8,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Цветы Пионы красные Pionies</v>
       </c>
-      <c r="BR8" s="16" t="s">
+      <c r="BS8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS8" s="17" t="str">
+      <c r="BT8" s="19" t="str">
         <f aca="false">CONCATENATE(H8,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -3287,7 +3334,7 @@
       <c r="G9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I9" s="0" t="s">
@@ -3310,7 +3357,7 @@
       <c r="R9" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S9" s="8" t="str">
+      <c r="S9" s="10" t="str">
         <f aca="false">A9&amp;Описание!B15</f>
         <v>Термонаклейка Цветы Магнолия фиолетовая Garden - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -3330,99 +3377,103 @@
       <c r="X9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y9" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H9,C9,"_1.jpg;"),CONCATENATE(H9,C9,"_2.jpg;"),CONCATENATE(H9,C9,"_3.jpg;"),CONCATENATE(H9,C9,"_4.jpg;"),CONCATENATE(H9,C9,"_5.jpg;"),CONCATENATE(H9,C9,"_6.jpg;"),CONCATENATE(H9,C9,"_7.jpg;"),CONCATENATE(H9,"instruction_A4.jpg;"),CONCATENATE(H9,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA9" s="0" t="str">
+      <c r="Y9" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H9,C9,"_1.jpg;"),CONCATENATE(H9,C9,"_2.jpg;"),CONCATENATE(H9,C9,"_3.jpg;"),CONCATENATE(H9,C9,"_4.jpg;"),CONCATENATE(H9,C9,"_5.jpg;"),CONCATENATE(H9,C9,"_6.jpg;"),CONCATENATE(H9,C9,"_7.jpg;"),CONCATENATE(H9,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z9" s="11" t="str">
+        <f aca="false">CONCATENATE(H9,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB9" s="0" t="str">
         <f aca="false">A9</f>
         <v>Термонаклейка Цветы Магнолия фиолетовая Garden</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <f aca="false">Q9</f>
         <v>349</v>
       </c>
-      <c r="AC9" s="0" t="n">
-        <f aca="false">ROUND(AB9*1.5,0)</f>
+      <c r="AD9" s="0" t="n">
+        <f aca="false">ROUND(AC9*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD9" s="10" t="s">
+      <c r="AE9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE9" s="7" t="s">
+      <c r="AF9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <f aca="false">W9</f>
         <v>12</v>
       </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AJ9" s="13" t="n">
         <f aca="false">V9*10</f>
         <v>210</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AK9" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK9" s="11" t="n">
+      <c r="AL9" s="13" t="n">
         <f aca="false">U9*10</f>
         <v>300</v>
       </c>
-      <c r="AL9" s="13" t="str">
+      <c r="AM9" s="15" t="str">
         <f aca="false">CONCATENATE(H9,C9,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_1.jpg</v>
       </c>
-      <c r="AM9" s="14" t="str">
+      <c r="AN9" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H9, C9, "_2.jpg;"),CONCATENATE(H9, C9, "_3.jpg;"),CONCATENATE(H9, C9, "_4.jpg;"),CONCATENATE(H9, C9, "_5.jpg;"),CONCATENATE(H9, C9, "_6.jpg;"),CONCATENATE(H9, C9, "_7.jpg;"),CONCATENATE(H9, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP9" s="13" t="str">
+      <c r="AQ9" s="15" t="str">
         <f aca="false">J9</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ9" s="15" t="s">
+      <c r="AR9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AT9" s="0" t="str">
+      <c r="AU9" s="0" t="str">
         <f aca="false">SUBSTITUTE(A9,"Термонаклейка ","")</f>
         <v>Цветы Магнолия фиолетовая Garden</v>
       </c>
-      <c r="AU9" s="10" t="s">
+      <c r="AV9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV9" s="0" t="str">
+      <c r="AW9" s="0" t="str">
         <f aca="false">S9</f>
         <v>Термонаклейка Цветы Магнолия фиолетовая Garden - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX9" s="11" t="str">
+      <c r="AY9" s="13" t="str">
         <f aca="false">X9</f>
         <v>Россия</v>
       </c>
-      <c r="BA9" s="11" t="str">
+      <c r="BB9" s="13" t="str">
         <f aca="false">R9</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC9" s="7" t="s">
+      <c r="BD9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BE9" s="14" t="str">
+      <c r="BF9" s="16" t="str">
         <f aca="false">CONCATENATE(H9,C9,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/219_vert_color.jpg</v>
       </c>
-      <c r="BM9" s="0" t="str">
+      <c r="BN9" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A9,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Цветы Магнолия фиолетовая Garden</v>
       </c>
-      <c r="BR9" s="16" t="s">
+      <c r="BS9" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS9" s="17" t="str">
+      <c r="BT9" s="19" t="str">
         <f aca="false">CONCATENATE(H9,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -3442,7 +3493,7 @@
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I10" s="0" t="s">
@@ -3465,7 +3516,7 @@
       <c r="R10" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S10" s="8" t="str">
+      <c r="S10" s="10" t="str">
         <f aca="false">A10&amp;Описание!B16</f>
         <v>Термонаклейка Цветы Розовые Spring Blossoms - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -3485,99 +3536,103 @@
       <c r="X10" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y10" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H10,C10,"_1.jpg;"),CONCATENATE(H10,C10,"_2.jpg;"),CONCATENATE(H10,C10,"_3.jpg;"),CONCATENATE(H10,C10,"_4.jpg;"),CONCATENATE(H10,C10,"_5.jpg;"),CONCATENATE(H10,C10,"_6.jpg;"),CONCATENATE(H10,C10,"_7.jpg;"),CONCATENATE(H10,"instruction_A4.jpg;"),CONCATENATE(H10,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA10" s="0" t="str">
+      <c r="Y10" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H10,C10,"_1.jpg;"),CONCATENATE(H10,C10,"_2.jpg;"),CONCATENATE(H10,C10,"_3.jpg;"),CONCATENATE(H10,C10,"_4.jpg;"),CONCATENATE(H10,C10,"_5.jpg;"),CONCATENATE(H10,C10,"_6.jpg;"),CONCATENATE(H10,C10,"_7.jpg;"),CONCATENATE(H10,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z10" s="11" t="str">
+        <f aca="false">CONCATENATE(H10,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB10" s="0" t="str">
         <f aca="false">A10</f>
         <v>Термонаклейка Цветы Розовые Spring Blossoms</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <f aca="false">Q10</f>
         <v>349</v>
       </c>
-      <c r="AC10" s="0" t="n">
-        <f aca="false">ROUND(AB10*1.5,0)</f>
+      <c r="AD10" s="0" t="n">
+        <f aca="false">ROUND(AC10*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD10" s="10" t="s">
+      <c r="AE10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AF10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <f aca="false">W10</f>
         <v>12</v>
       </c>
-      <c r="AI10" s="11" t="n">
+      <c r="AJ10" s="13" t="n">
         <f aca="false">V10*10</f>
         <v>210</v>
       </c>
-      <c r="AJ10" s="12" t="n">
+      <c r="AK10" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK10" s="11" t="n">
+      <c r="AL10" s="13" t="n">
         <f aca="false">U10*10</f>
         <v>300</v>
       </c>
-      <c r="AL10" s="13" t="str">
+      <c r="AM10" s="15" t="str">
         <f aca="false">CONCATENATE(H10,C10,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_1.jpg</v>
       </c>
-      <c r="AM10" s="14" t="str">
+      <c r="AN10" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H10, C10, "_2.jpg;"),CONCATENATE(H10, C10, "_3.jpg;"),CONCATENATE(H10, C10, "_4.jpg;"),CONCATENATE(H10, C10, "_5.jpg;"),CONCATENATE(H10, C10, "_6.jpg;"),CONCATENATE(H10, C10, "_7.jpg;"),CONCATENATE(H10, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP10" s="13" t="str">
+      <c r="AQ10" s="15" t="str">
         <f aca="false">J10</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ10" s="15" t="s">
+      <c r="AR10" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AT10" s="0" t="str">
+      <c r="AU10" s="0" t="str">
         <f aca="false">SUBSTITUTE(A10,"Термонаклейка ","")</f>
         <v>Цветы Розовые Spring Blossoms</v>
       </c>
-      <c r="AU10" s="10" t="s">
+      <c r="AV10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV10" s="0" t="str">
+      <c r="AW10" s="0" t="str">
         <f aca="false">S10</f>
         <v>Термонаклейка Цветы Розовые Spring Blossoms - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX10" s="11" t="str">
+      <c r="AY10" s="13" t="str">
         <f aca="false">X10</f>
         <v>Россия</v>
       </c>
-      <c r="BA10" s="11" t="str">
+      <c r="BB10" s="13" t="str">
         <f aca="false">R10</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC10" s="7" t="s">
+      <c r="BD10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BE10" s="14" t="str">
+      <c r="BF10" s="16" t="str">
         <f aca="false">CONCATENATE(H10,C10,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/220_vert_color.jpg</v>
       </c>
-      <c r="BM10" s="0" t="str">
+      <c r="BN10" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A10,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Цветы Розовые Spring Blossoms</v>
       </c>
-      <c r="BR10" s="16" t="s">
+      <c r="BS10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS10" s="17" t="str">
+      <c r="BT10" s="19" t="str">
         <f aca="false">CONCATENATE(H10,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -3597,7 +3652,7 @@
       <c r="G11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I11" s="0" t="s">
@@ -3620,7 +3675,7 @@
       <c r="R11" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="8" t="str">
+      <c r="S11" s="10" t="str">
         <f aca="false">A11&amp;Описание!B17</f>
         <v>Термонаклейка Бабочки 4шт небо внутри - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -3640,99 +3695,103 @@
       <c r="X11" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y11" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H11,C11,"_1.jpg;"),CONCATENATE(H11,C11,"_2.jpg;"),CONCATENATE(H11,C11,"_3.jpg;"),CONCATENATE(H11,C11,"_4.jpg;"),CONCATENATE(H11,C11,"_5.jpg;"),CONCATENATE(H11,C11,"_6.jpg;"),CONCATENATE(H11,C11,"_7.jpg;"),CONCATENATE(H11,"instruction_A4.jpg;"),CONCATENATE(H11,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA11" s="0" t="str">
+      <c r="Y11" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H11,C11,"_1.jpg;"),CONCATENATE(H11,C11,"_2.jpg;"),CONCATENATE(H11,C11,"_3.jpg;"),CONCATENATE(H11,C11,"_4.jpg;"),CONCATENATE(H11,C11,"_5.jpg;"),CONCATENATE(H11,C11,"_6.jpg;"),CONCATENATE(H11,C11,"_7.jpg;"),CONCATENATE(H11,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z11" s="11" t="str">
+        <f aca="false">CONCATENATE(H11,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB11" s="0" t="str">
         <f aca="false">A11</f>
         <v>Термонаклейка Бабочки 4шт небо внутри</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <f aca="false">Q11</f>
         <v>349</v>
       </c>
-      <c r="AC11" s="0" t="n">
-        <f aca="false">ROUND(AB11*1.5,0)</f>
+      <c r="AD11" s="0" t="n">
+        <f aca="false">ROUND(AC11*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD11" s="10" t="s">
+      <c r="AE11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE11" s="7" t="s">
+      <c r="AF11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <f aca="false">W11</f>
         <v>12</v>
       </c>
-      <c r="AI11" s="11" t="n">
+      <c r="AJ11" s="13" t="n">
         <f aca="false">V11*10</f>
         <v>210</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AK11" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK11" s="11" t="n">
+      <c r="AL11" s="13" t="n">
         <f aca="false">U11*10</f>
         <v>300</v>
       </c>
-      <c r="AL11" s="13" t="str">
+      <c r="AM11" s="15" t="str">
         <f aca="false">CONCATENATE(H11,C11,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_1.jpg</v>
       </c>
-      <c r="AM11" s="14" t="str">
+      <c r="AN11" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H11, C11, "_2.jpg;"),CONCATENATE(H11, C11, "_3.jpg;"),CONCATENATE(H11, C11, "_4.jpg;"),CONCATENATE(H11, C11, "_5.jpg;"),CONCATENATE(H11, C11, "_6.jpg;"),CONCATENATE(H11, C11, "_7.jpg;"),CONCATENATE(H11, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP11" s="13" t="str">
+      <c r="AQ11" s="15" t="str">
         <f aca="false">J11</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ11" s="15" t="s">
+      <c r="AR11" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AT11" s="0" t="str">
+      <c r="AU11" s="0" t="str">
         <f aca="false">SUBSTITUTE(A11,"Термонаклейка ","")</f>
         <v>Бабочки 4шт небо внутри</v>
       </c>
-      <c r="AU11" s="10" t="s">
+      <c r="AV11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV11" s="0" t="str">
+      <c r="AW11" s="0" t="str">
         <f aca="false">S11</f>
         <v>Термонаклейка Бабочки 4шт небо внутри - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX11" s="11" t="str">
+      <c r="AY11" s="13" t="str">
         <f aca="false">X11</f>
         <v>Россия</v>
       </c>
-      <c r="BA11" s="11" t="str">
+      <c r="BB11" s="13" t="str">
         <f aca="false">R11</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC11" s="7" t="s">
+      <c r="BD11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BE11" s="14" t="str">
+      <c r="BF11" s="16" t="str">
         <f aca="false">CONCATENATE(H11,C11,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/221_vert_color.jpg</v>
       </c>
-      <c r="BM11" s="0" t="str">
+      <c r="BN11" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A11,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бабочки 4шт небо внутри</v>
       </c>
-      <c r="BR11" s="16" t="s">
+      <c r="BS11" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS11" s="17" t="str">
+      <c r="BT11" s="19" t="str">
         <f aca="false">CONCATENATE(H11,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -3752,7 +3811,7 @@
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I12" s="0" t="s">
@@ -3775,7 +3834,7 @@
       <c r="R12" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S12" s="8" t="str">
+      <c r="S12" s="10" t="str">
         <f aca="false">A12&amp;Описание!B18</f>
         <v>Термонаклейка Пантера силует внутри цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
@@ -3795,148 +3854,148 @@
       <c r="X12" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y12" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H12,C12,"_1.jpg;"),CONCATENATE(H12,C12,"_2.jpg;"),CONCATENATE(H12,C12,"_3.jpg;"),CONCATENATE(H12,C12,"_4.jpg;"),CONCATENATE(H12,C12,"_5.jpg;"),CONCATENATE(H12,C12,"_6.jpg;"),CONCATENATE(H12,C12,"_7.jpg;"),CONCATENATE(H12,"instruction_A4.jpg;"),CONCATENATE(H12,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA12" s="0" t="str">
+      <c r="Y12" s="11" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H12,C12,"_1.jpg;"),CONCATENATE(H12,C12,"_2.jpg;"),CONCATENATE(H12,C12,"_3.jpg;"),CONCATENATE(H12,C12,"_4.jpg;"),CONCATENATE(H12,C12,"_5.jpg;"),CONCATENATE(H12,C12,"_6.jpg;"),CONCATENATE(H12,C12,"_7.jpg;"),CONCATENATE(H12,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z12" s="11" t="str">
+        <f aca="false">CONCATENATE(H12,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</v>
+      </c>
+      <c r="AB12" s="0" t="str">
         <f aca="false">A12</f>
         <v>Термонаклейка Пантера силует внутри цветы</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <f aca="false">Q12</f>
         <v>349</v>
       </c>
-      <c r="AC12" s="0" t="n">
-        <f aca="false">ROUND(AB12*1.5,0)</f>
+      <c r="AD12" s="0" t="n">
+        <f aca="false">ROUND(AC12*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD12" s="10" t="s">
+      <c r="AE12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE12" s="7" t="s">
+      <c r="AF12" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <f aca="false">W12</f>
         <v>12</v>
       </c>
-      <c r="AI12" s="11" t="n">
+      <c r="AJ12" s="13" t="n">
         <f aca="false">V12*10</f>
         <v>210</v>
       </c>
-      <c r="AJ12" s="12" t="n">
+      <c r="AK12" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AK12" s="11" t="n">
+      <c r="AL12" s="13" t="n">
         <f aca="false">U12*10</f>
         <v>300</v>
       </c>
-      <c r="AL12" s="13" t="str">
+      <c r="AM12" s="15" t="str">
         <f aca="false">CONCATENATE(H12,C12,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_1.jpg</v>
       </c>
-      <c r="AM12" s="14" t="str">
+      <c r="AN12" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H12, C12, "_2.jpg;"),CONCATENATE(H12, C12, "_3.jpg;"),CONCATENATE(H12, C12, "_4.jpg;"),CONCATENATE(H12, C12, "_5.jpg;"),CONCATENATE(H12, C12, "_6.jpg;"),CONCATENATE(H12, C12, "_7.jpg;"),CONCATENATE(H12, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;</v>
       </c>
-      <c r="AP12" s="13" t="str">
+      <c r="AQ12" s="15" t="str">
         <f aca="false">J12</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ12" s="15" t="s">
+      <c r="AR12" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AT12" s="0" t="str">
+      <c r="AU12" s="0" t="str">
         <f aca="false">SUBSTITUTE(A12,"Термонаклейка ","")</f>
         <v>Пантера силует внутри цветы</v>
       </c>
-      <c r="AU12" s="10" t="s">
+      <c r="AV12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AV12" s="0" t="str">
+      <c r="AW12" s="0" t="str">
         <f aca="false">S12</f>
         <v>Термонаклейка Пантера силует внутри цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX12" s="11" t="str">
+      <c r="AY12" s="13" t="str">
         <f aca="false">X12</f>
         <v>Россия</v>
       </c>
-      <c r="BA12" s="11" t="str">
+      <c r="BB12" s="13" t="str">
         <f aca="false">R12</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC12" s="7" t="s">
+      <c r="BD12" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BE12" s="14" t="str">
+      <c r="BF12" s="16" t="str">
         <f aca="false">CONCATENATE(H12,C12,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/222_vert_color.jpg</v>
       </c>
-      <c r="BM12" s="0" t="str">
+      <c r="BN12" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A12,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Пантера силует внутри цветы</v>
       </c>
-      <c r="BR12" s="16" t="s">
+      <c r="BS12" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="BS12" s="17" t="str">
+      <c r="BT12" s="19" t="str">
         <f aca="false">CONCATENATE(H12,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="16">
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AZ2" type="decimal">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AZ2:BA2" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2:AD12" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE2:AE12" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE2:AE12" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF2:AF12" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AR2 BB2 BH2 BO2" type="whole">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AS2 BC2 BI2 BP2" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AJ2:AJ12" type="whole">
+    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AK2:AK12" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AS2" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AT2" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2:AU12" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AV2:AV12" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AX2:AX12" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AY2:AY12" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BA2:BA12" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BB2:BB12" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BC2:BC12" type="list">
+    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BD2:BD12" type="list">
       <formula1>"Да,Нет"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BD2" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BE2" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BF2" type="list">
-      <formula1>#name?</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BI2" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BG2" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3949,6 +4008,10 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2" type="list">
+      <formula1>#name?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BM2" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4000,7 +4063,7 @@
       <c r="A2" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4008,7 +4071,7 @@
       <c r="A3" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4016,7 +4079,7 @@
       <c r="A4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4024,7 +4087,7 @@
       <c r="A5" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4032,7 +4095,7 @@
       <c r="A6" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4040,7 +4103,7 @@
       <c r="A7" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4048,7 +4111,7 @@
       <c r="A8" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4056,7 +4119,7 @@
       <c r="A9" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4064,7 +4127,7 @@
       <c r="A10" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4072,7 +4135,7 @@
       <c r="A11" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4080,7 +4143,7 @@
       <c r="A12" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4088,7 +4151,7 @@
       <c r="A13" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4096,7 +4159,7 @@
       <c r="A14" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4104,7 +4167,7 @@
       <c r="A15" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4112,7 +4175,7 @@
       <c r="A16" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4120,7 +4183,7 @@
       <c r="A17" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4128,7 +4191,7 @@
       <c r="A18" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4136,7 +4199,7 @@
       <c r="A19" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4144,7 +4207,7 @@
       <c r="A20" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4152,7 +4215,7 @@
       <c r="A21" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4160,7 +4223,7 @@
       <c r="A22" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4168,7 +4231,7 @@
       <c r="A23" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4176,7 +4239,7 @@
       <c r="A24" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4184,7 +4247,7 @@
       <c r="A25" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4192,7 +4255,7 @@
       <c r="A26" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4200,7 +4263,7 @@
       <c r="A27" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4208,7 +4271,7 @@
       <c r="A28" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4216,7 +4279,7 @@
       <c r="A29" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4224,7 +4287,7 @@
       <c r="A30" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4232,7 +4295,7 @@
       <c r="A31" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4240,7 +4303,7 @@
       <c r="A32" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4248,7 +4311,7 @@
       <c r="A33" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4256,7 +4319,7 @@
       <c r="A34" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4264,7 +4327,7 @@
       <c r="A35" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4272,7 +4335,7 @@
       <c r="A36" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4280,7 +4343,7 @@
       <c r="A37" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4288,7 +4351,7 @@
       <c r="A38" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4296,7 +4359,7 @@
       <c r="A39" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4304,7 +4367,7 @@
       <c r="A40" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4312,7 +4375,7 @@
       <c r="A41" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4320,7 +4383,7 @@
       <c r="A42" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4328,7 +4391,7 @@
       <c r="A43" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4336,7 +4399,7 @@
       <c r="A44" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4344,7 +4407,7 @@
       <c r="A45" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4352,7 +4415,7 @@
       <c r="A46" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4360,7 +4423,7 @@
       <c r="A47" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4368,7 +4431,7 @@
       <c r="A48" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4376,7 +4439,7 @@
       <c r="A49" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4384,7 +4447,7 @@
       <c r="A50" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4392,7 +4455,7 @@
       <c r="A51" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4400,7 +4463,7 @@
       <c r="A52" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4408,7 +4471,7 @@
       <c r="A53" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4416,7 +4479,7 @@
       <c r="A54" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4424,7 +4487,7 @@
       <c r="A55" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4432,7 +4495,7 @@
       <c r="A56" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4440,7 +4503,7 @@
       <c r="A57" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4448,7 +4511,7 @@
       <c r="A58" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4456,7 +4519,7 @@
       <c r="A59" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4464,7 +4527,7 @@
       <c r="A60" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4472,7 +4535,7 @@
       <c r="A61" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4480,7 +4543,7 @@
       <c r="A62" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4488,7 +4551,7 @@
       <c r="A63" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4496,7 +4559,7 @@
       <c r="A64" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4504,7 +4567,7 @@
       <c r="A65" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4512,7 +4575,7 @@
       <c r="A66" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4520,7 +4583,7 @@
       <c r="A67" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4528,7 +4591,7 @@
       <c r="A68" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4536,7 +4599,7 @@
       <c r="A69" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4544,7 +4607,7 @@
       <c r="A70" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4552,7 +4615,7 @@
       <c r="A71" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4560,7 +4623,7 @@
       <c r="A72" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4568,7 +4631,7 @@
       <c r="A73" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4576,7 +4639,7 @@
       <c r="A74" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4584,7 +4647,7 @@
       <c r="A75" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4592,7 +4655,7 @@
       <c r="A76" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4600,7 +4663,7 @@
       <c r="A77" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4608,7 +4671,7 @@
       <c r="A78" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4616,7 +4679,7 @@
       <c r="A79" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4624,7 +4687,7 @@
       <c r="A80" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4632,7 +4695,7 @@
       <c r="A81" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4640,7 +4703,7 @@
       <c r="A82" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4648,7 +4711,7 @@
       <c r="A83" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4656,7 +4719,7 @@
       <c r="A84" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4664,7 +4727,7 @@
       <c r="A85" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4672,7 +4735,7 @@
       <c r="A86" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4680,7 +4743,7 @@
       <c r="A87" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4688,7 +4751,7 @@
       <c r="A88" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4696,7 +4759,7 @@
       <c r="A89" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4704,7 +4767,7 @@
       <c r="A90" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4712,7 +4775,7 @@
       <c r="A91" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4720,7 +4783,7 @@
       <c r="A92" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4728,7 +4791,7 @@
       <c r="A93" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4736,7 +4799,7 @@
       <c r="A94" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4744,7 +4807,7 @@
       <c r="A95" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4752,7 +4815,7 @@
       <c r="A96" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4760,7 +4823,7 @@
       <c r="A97" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4768,7 +4831,7 @@
       <c r="A98" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4776,7 +4839,7 @@
       <c r="A99" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4784,7 +4847,7 @@
       <c r="A100" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4792,7 +4855,7 @@
       <c r="A101" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4800,7 +4863,7 @@
       <c r="A102" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4808,7 +4871,7 @@
       <c r="A103" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4816,7 +4879,7 @@
       <c r="A104" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4824,7 +4887,7 @@
       <c r="A105" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4832,7 +4895,7 @@
       <c r="A106" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4840,7 +4903,7 @@
       <c r="A107" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4848,7 +4911,7 @@
       <c r="A108" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4856,7 +4919,7 @@
       <c r="A109" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4864,7 +4927,7 @@
       <c r="A110" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4872,7 +4935,7 @@
       <c r="A111" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4880,12 +4943,12 @@
       <c r="A112" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="10" t="s">
         <v>104</v>
       </c>
     </row>
